--- a/bin/excel/SpanishEnglish-BODY2.xlsx
+++ b/bin/excel/SpanishEnglish-BODY2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84449EA9-F297-4D37-9145-D19904658350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02FC8C-A5D0-4A83-8EBA-BEFDF63E32BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BEC6AFFC-55EF-4701-B09B-29F0256D80F0}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>frente</t>
   </si>
   <si>
@@ -51,178 +48,262 @@
     <t>hoyuelo</t>
   </si>
   <si>
+    <t>nuca</t>
+  </si>
+  <si>
+    <t>nape</t>
+  </si>
+  <si>
+    <t>una</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>diente</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>muela</t>
+  </si>
+  <si>
+    <t>molar</t>
+  </si>
+  <si>
+    <t>lengua</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>pupila</t>
+  </si>
+  <si>
+    <t>pupil</t>
+  </si>
+  <si>
+    <t>barba</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>barriga</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>iris del ojo</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>axila</t>
+  </si>
+  <si>
+    <t>armpit</t>
+  </si>
+  <si>
+    <t>arruga</t>
+  </si>
+  <si>
+    <t>wrinkle</t>
+  </si>
+  <si>
+    <t>hombro</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>mejilla</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>teta</t>
+  </si>
+  <si>
+    <t>boob</t>
+  </si>
+  <si>
+    <t>encia</t>
+  </si>
+  <si>
+    <t>gum</t>
+  </si>
+  <si>
+    <t>labio inferior</t>
+  </si>
+  <si>
+    <t>lower lip</t>
+  </si>
+  <si>
+    <t>paladar</t>
+  </si>
+  <si>
+    <t>palate</t>
+  </si>
+  <si>
+    <t>uvula</t>
+  </si>
+  <si>
+    <t>patas de gallo</t>
+  </si>
+  <si>
+    <t>crows feet</t>
+  </si>
+  <si>
+    <t>parpado superior</t>
+  </si>
+  <si>
+    <t>parpado inferior</t>
+  </si>
+  <si>
+    <t>torso</t>
+  </si>
+  <si>
+    <t>human trunk/torso</t>
+  </si>
+  <si>
+    <t>cuerpo humano</t>
+  </si>
+  <si>
+    <t>human body</t>
+  </si>
+  <si>
+    <t>ingle</t>
+  </si>
+  <si>
+    <t>groin</t>
+  </si>
+  <si>
+    <t>espinilla</t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>muslo</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>pantorrilla</t>
+  </si>
+  <si>
+    <t>espalda alta</t>
+  </si>
+  <si>
+    <t>upper back</t>
+  </si>
+  <si>
+    <t>pecho</t>
+  </si>
+  <si>
+    <t>brest</t>
+  </si>
+  <si>
+    <t>forjed</t>
+  </si>
+  <si>
+    <t>neip</t>
+  </si>
+  <si>
+    <t>neol</t>
+  </si>
+  <si>
+    <t>ttuf</t>
+  </si>
+  <si>
+    <t>mouler</t>
+  </si>
+  <si>
+    <t>ttong</t>
+  </si>
+  <si>
+    <t>piupol</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>beli</t>
+  </si>
+  <si>
+    <t>aires</t>
+  </si>
+  <si>
+    <t>armpet</t>
+  </si>
+  <si>
+    <t>rrinkol</t>
+  </si>
+  <si>
+    <t>chik</t>
+  </si>
+  <si>
+    <t>buub</t>
+  </si>
+  <si>
+    <t>gom</t>
+  </si>
+  <si>
+    <t>louer lep</t>
+  </si>
+  <si>
+    <t>palet</t>
+  </si>
+  <si>
+    <t>I'uviula</t>
+  </si>
+  <si>
+    <t>crous fit</t>
+  </si>
+  <si>
+    <t>top ailied</t>
+  </si>
+  <si>
+    <t>top eyelid</t>
+  </si>
+  <si>
+    <t>bottom eyelid</t>
+  </si>
+  <si>
+    <t>bodom ailied</t>
+  </si>
+  <si>
+    <t>ji'umen tronk/ttorsou</t>
+  </si>
+  <si>
+    <t>ji'umen badi</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>caf mosol</t>
+  </si>
+  <si>
+    <t>oper back</t>
+  </si>
+  <si>
+    <t>calf muscle</t>
+  </si>
+  <si>
     <t>dimple</t>
   </si>
   <si>
-    <t>nuca</t>
-  </si>
-  <si>
-    <t>nape</t>
-  </si>
-  <si>
-    <t>una</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>diente</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>muela</t>
-  </si>
-  <si>
-    <t>molar</t>
-  </si>
-  <si>
-    <t>lengua</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>pupila</t>
-  </si>
-  <si>
-    <t>pupil</t>
-  </si>
-  <si>
-    <t>barba</t>
-  </si>
-  <si>
-    <t>beard</t>
-  </si>
-  <si>
-    <t>barriga</t>
-  </si>
-  <si>
-    <t>belly</t>
-  </si>
-  <si>
-    <t>iris del ojo</t>
-  </si>
-  <si>
-    <t>iris</t>
-  </si>
-  <si>
-    <t>axila</t>
-  </si>
-  <si>
-    <t>armpit</t>
-  </si>
-  <si>
-    <t>arruga</t>
-  </si>
-  <si>
-    <t>wrinkle</t>
-  </si>
-  <si>
-    <t>hombro</t>
-  </si>
-  <si>
-    <t>shoulder</t>
-  </si>
-  <si>
-    <t>mejilla</t>
-  </si>
-  <si>
-    <t>cheek</t>
-  </si>
-  <si>
-    <t>teta</t>
-  </si>
-  <si>
-    <t>boob</t>
-  </si>
-  <si>
-    <t>encia</t>
-  </si>
-  <si>
-    <t>gum</t>
-  </si>
-  <si>
-    <t>labio inferior</t>
-  </si>
-  <si>
-    <t>lower lip</t>
-  </si>
-  <si>
-    <t>paladar</t>
-  </si>
-  <si>
-    <t>palate</t>
-  </si>
-  <si>
-    <t>uvula</t>
-  </si>
-  <si>
-    <t>patas de gallo</t>
-  </si>
-  <si>
-    <t>crows feet</t>
-  </si>
-  <si>
-    <t>parpado superior</t>
-  </si>
-  <si>
-    <t>top lid</t>
-  </si>
-  <si>
-    <t>parpado inferior</t>
-  </si>
-  <si>
-    <t>bottom lid</t>
-  </si>
-  <si>
-    <t>torso</t>
-  </si>
-  <si>
-    <t>human trunk/torso</t>
-  </si>
-  <si>
-    <t>cuerpo humano</t>
-  </si>
-  <si>
-    <t>human body</t>
-  </si>
-  <si>
-    <t>ingle</t>
-  </si>
-  <si>
-    <t>groin</t>
-  </si>
-  <si>
-    <t>espinilla</t>
-  </si>
-  <si>
-    <t>shin</t>
-  </si>
-  <si>
-    <t>muslo</t>
-  </si>
-  <si>
-    <t>thigh</t>
-  </si>
-  <si>
-    <t>pantorrilla</t>
-  </si>
-  <si>
-    <t>calf</t>
-  </si>
-  <si>
-    <t>espalda alta</t>
-  </si>
-  <si>
-    <t>upper back</t>
-  </si>
-  <si>
-    <t>pecho</t>
-  </si>
-  <si>
-    <t>brest</t>
+    <t>dimpol</t>
+  </si>
+  <si>
+    <t>shen</t>
   </si>
 </sst>
 </file>
@@ -587,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEF52CC-BD2C-49C9-B7DE-AC34BB850084}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
